--- a/Build_Documents/BOM/BOM.xlsx
+++ b/Build_Documents/BOM/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DKeekstra\Desktop\Dropbox\eagle\projecten\FPGA Board V2\Build_Documents\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7A45F5-A554-4D42-BFE4-589C10C6B3D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2D25CF-DF29-4F0D-B671-C12BFADF989C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="9660" windowHeight="2145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorted Full BOM" sheetId="5" r:id="rId1"/>
@@ -24,12 +24,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="240">
   <si>
     <t xml:space="preserve">579-PIC18F14K50-I/SS </t>
   </si>
@@ -58,9 +64,6 @@
     <t>FPGA Flash</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>863-NTR2101PT1G</t>
   </si>
   <si>
@@ -70,12 +73,6 @@
     <t>22pF</t>
   </si>
   <si>
-    <t xml:space="preserve">581-06035C220JAT2A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">621-AP3429AKTTR-G1 </t>
-  </si>
-  <si>
     <t>AP3429</t>
   </si>
   <si>
@@ -598,15 +595,6 @@
     <t xml:space="preserve">972-LH535048.000000I </t>
   </si>
   <si>
-    <t xml:space="preserve">603-CC603JRNPO0BN160 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">710-885012206071 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">754-RR0816P-101D </t>
-  </si>
-  <si>
     <t>R35</t>
   </si>
   <si>
@@ -634,21 +622,9 @@
     <t xml:space="preserve">754-RR0816Q-100D </t>
   </si>
   <si>
-    <t>603-RT0603FRE0710KL</t>
-  </si>
-  <si>
-    <t>754-RR0816P-104D</t>
-  </si>
-  <si>
-    <t>603-RT0603FRE071KL</t>
-  </si>
-  <si>
     <t>Order Description</t>
   </si>
   <si>
-    <t>min 100st</t>
-  </si>
-  <si>
     <t>667-ERA-3AED201V</t>
   </si>
   <si>
@@ -661,28 +637,7 @@
     <t>667-ERA-3AED154V</t>
   </si>
   <si>
-    <t>603-RT0603DRE07120RL</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD0732KL</t>
-  </si>
-  <si>
-    <t>603-RT0603DRE0733KL</t>
-  </si>
-  <si>
-    <t>603-RT0603DRE072K2L</t>
-  </si>
-  <si>
-    <t>71-RCS06030000Z0EA</t>
-  </si>
-  <si>
     <t xml:space="preserve">660-CN2B4TTE102J </t>
-  </si>
-  <si>
-    <t xml:space="preserve">660-CN2B4TTE103J </t>
-  </si>
-  <si>
-    <t>SLF7032T-3R3M1R9-2-PF</t>
   </si>
   <si>
     <t xml:space="preserve">549-CYS6Q31C-12MHZ </t>
@@ -756,6 +711,54 @@
   <si>
     <t>LED0, LED1, LED2, LED3, LED4, LED5, LED6,
 LED7, USB_BLASTER</t>
+  </si>
+  <si>
+    <t>SMD rol</t>
+  </si>
+  <si>
+    <t>Tray7 4a</t>
+  </si>
+  <si>
+    <t>Tray5 7a</t>
+  </si>
+  <si>
+    <t>Tray5 9a</t>
+  </si>
+  <si>
+    <t>Tray7 5h</t>
+  </si>
+  <si>
+    <t>Tray3 2a</t>
+  </si>
+  <si>
+    <t>Tray3 11a</t>
+  </si>
+  <si>
+    <t>Tray3 6a</t>
+  </si>
+  <si>
+    <t>Tray4 4g</t>
+  </si>
+  <si>
+    <t>Tray3 9h</t>
+  </si>
+  <si>
+    <t>603-RT0603DRE07120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">754-RR0816P-222D </t>
+  </si>
+  <si>
+    <t>754-RR0816P-333D</t>
+  </si>
+  <si>
+    <t>RN731JTTD3202D25</t>
+  </si>
+  <si>
+    <t>603-YC324-JK-0710KL</t>
+  </si>
+  <si>
+    <t>621-AP3429AKTTR</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,6 +785,12 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -990,7 +999,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1273,130 +1282,128 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="11">
         <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>190</v>
-      </c>
+      <c r="H2"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="K2" s="7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L2" s="7">
         <f>K2*B2</f>
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="21">
@@ -1405,48 +1412,46 @@
       </c>
       <c r="P2" s="23">
         <f>O2*K2</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="21">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="9">
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>189</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="K3" s="4">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L55" si="0">K3*B3</f>
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21">
@@ -1455,46 +1460,44 @@
       </c>
       <c r="P3" s="23">
         <f t="shared" ref="P3:P63" si="2">O3*K3</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="21"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="9">
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="K4" s="4">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21">
@@ -1503,34 +1506,34 @@
       </c>
       <c r="P4" s="23">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="21"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="9">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -1540,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21">
@@ -1553,7 +1556,7 @@
       </c>
       <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1578,32 +1581,32 @@
       </c>
       <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -1613,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="21">
@@ -1626,7 +1629,7 @@
       </c>
       <c r="Q7" s="21"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1651,7 +1654,7 @@
       </c>
       <c r="Q8" s="21"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1659,432 +1662,402 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>191</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H9"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="K9" s="4">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N9" s="21"/>
       <c r="O9" s="21">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P9" s="23">
         <f t="shared" si="2"/>
-        <v>0.35000000000000003</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="9">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>200</v>
-      </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4">
-        <v>1.4E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>2.8000000000000001E-2</v>
+        <v>0.18</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N10" s="21"/>
       <c r="O10" s="21">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="P10" s="23">
         <f t="shared" si="2"/>
-        <v>0.70000000000000007</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="9">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>201</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="K11" s="4">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N11" s="21"/>
       <c r="O11" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="P11" s="23">
         <f t="shared" si="2"/>
-        <v>2.8000000000000003</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="21"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>202</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H12"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="K12" s="4">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N12" s="21"/>
       <c r="O12" s="21">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="P12" s="23">
         <f t="shared" si="2"/>
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="21"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="9">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>203</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H13"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="K13" s="4">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N13" s="21"/>
       <c r="O13" s="21">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="P13" s="23">
         <f t="shared" si="2"/>
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="21"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="4">
-        <v>2.7E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>2.7E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N14" s="21"/>
       <c r="O14" s="21">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P14" s="23">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" s="21"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="9">
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4">
-        <v>3.6999999999999998E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>3.6999999999999998E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N15" s="21"/>
       <c r="O15" s="21">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P15" s="23">
         <f t="shared" si="2"/>
-        <v>0.92499999999999993</v>
+        <v>2.4250000000000003</v>
       </c>
       <c r="Q15" s="21"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="4">
-        <v>2.1999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>2.1999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N16" s="21"/>
       <c r="O16" s="21">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P16" s="23">
         <f t="shared" si="2"/>
-        <v>0.54999999999999993</v>
+        <v>1.6</v>
       </c>
       <c r="Q16" s="21"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="9">
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>211</v>
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
-        <v>0.21099999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>0.21099999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="21">
@@ -2093,134 +2066,126 @@
       </c>
       <c r="P17" s="23">
         <f t="shared" si="2"/>
-        <v>5.2749999999999995</v>
+        <v>3.7749999999999999</v>
       </c>
       <c r="Q17" s="21"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="9">
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>212</v>
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>236</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4">
-        <v>2.3E-2</v>
+      <c r="K18">
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>2.3E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N18" s="21"/>
       <c r="O18" s="21">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P18" s="23">
         <f t="shared" si="2"/>
-        <v>0.57499999999999996</v>
+        <v>1.925</v>
       </c>
       <c r="Q18" s="21"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="9">
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="4">
-        <v>2.1999999999999999E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" ref="L19:L20" si="3">K19*B19</f>
-        <v>4.3999999999999997E-2</v>
+        <v>0.154</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N19" s="21"/>
       <c r="O19" s="21">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="P19" s="23">
         <f t="shared" si="2"/>
-        <v>1.0999999999999999</v>
+        <v>3.85</v>
       </c>
       <c r="Q19" s="21"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="9">
         <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>214</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H20" s="8"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="K20" s="4">
         <v>1.4E-2</v>
@@ -2230,11 +2195,9 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N20" s="21"/>
       <c r="O20" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2245,7 +2208,7 @@
       </c>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2270,30 +2233,30 @@
       </c>
       <c r="Q21" s="21"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B22" s="4">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -2305,7 +2268,7 @@
         <v>0.755</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N22" s="21"/>
       <c r="O22" s="21">
@@ -2318,40 +2281,40 @@
       </c>
       <c r="Q22" s="21"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4">
-        <v>0.151</v>
+      <c r="K23">
+        <v>0.35299999999999998</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="0"/>
-        <v>0.30199999999999999</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N23" s="21"/>
       <c r="O23" s="21">
@@ -2360,11 +2323,11 @@
       </c>
       <c r="P23" s="23">
         <f t="shared" si="2"/>
-        <v>7.55</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="Q23" s="21"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2389,30 +2352,30 @@
       </c>
       <c r="Q24" s="21"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B25" s="4">
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -2424,7 +2387,7 @@
         <v>0.54</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21">
@@ -2437,7 +2400,7 @@
       </c>
       <c r="Q25" s="21"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2462,34 +2425,32 @@
       </c>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B27" s="5">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>217</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H27" s="16"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5">
@@ -2508,7 +2469,7 @@
       </c>
       <c r="Q27" s="21"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2533,30 +2494,30 @@
       </c>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="H29" s="17" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2568,7 +2529,7 @@
         <v>0.9</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N29" s="21"/>
       <c r="O29" s="21">
@@ -2581,28 +2542,28 @@
       </c>
       <c r="Q29" s="21"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2614,7 +2575,7 @@
         <v>0.26</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N30" s="21"/>
       <c r="O30" s="21">
@@ -2627,7 +2588,7 @@
       </c>
       <c r="Q30" s="21"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2652,30 +2613,30 @@
       </c>
       <c r="Q31" s="21"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -2687,7 +2648,7 @@
         <v>0.33</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21">
@@ -2700,7 +2661,7 @@
       </c>
       <c r="Q32" s="21"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2725,42 +2686,42 @@
       </c>
       <c r="Q33" s="21"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="H34" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4">
-        <v>0.25</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21">
@@ -2769,32 +2730,32 @@
       </c>
       <c r="P34" s="23">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>6.5250000000000004</v>
       </c>
       <c r="Q34" s="21"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="4">
         <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2806,7 +2767,7 @@
         <v>0.7</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N35" s="21"/>
       <c r="O35" s="21">
@@ -2819,7 +2780,7 @@
       </c>
       <c r="Q35" s="21"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2844,7 +2805,7 @@
       </c>
       <c r="Q36" s="21"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -2852,22 +2813,22 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -2879,7 +2840,7 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N37" s="21"/>
       <c r="O37" s="21">
@@ -2892,40 +2853,40 @@
       </c>
       <c r="Q37" s="21"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5">
         <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5">
-        <v>0.18</v>
+        <v>0.108</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="0"/>
-        <v>1.6199999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N38" s="21"/>
       <c r="O38" s="21">
@@ -2934,11 +2895,11 @@
       </c>
       <c r="P38" s="23">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q38" s="21"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2963,41 +2924,37 @@
       </c>
       <c r="Q39" s="21"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="21" t="s">
-        <v>155</v>
-      </c>
+      <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21">
         <f t="shared" si="1"/>
@@ -3009,40 +2966,40 @@
       </c>
       <c r="Q40" s="21"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="4"/>
       <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="0"/>
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N41" s="21"/>
       <c r="O41" s="21">
@@ -3051,33 +3008,33 @@
       </c>
       <c r="P41" s="23">
         <f t="shared" si="2"/>
-        <v>24.75</v>
+        <v>19.75</v>
       </c>
       <c r="Q41" s="21"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3085,9 +3042,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="21" t="s">
-        <v>155</v>
-      </c>
+      <c r="M42" s="21"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21">
         <f t="shared" si="1"/>
@@ -3099,29 +3054,29 @@
       </c>
       <c r="Q42" s="21"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="4"/>
       <c r="B43" s="4">
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3129,9 +3084,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="21" t="s">
-        <v>155</v>
-      </c>
+      <c r="M43" s="21"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21">
         <f t="shared" si="1"/>
@@ -3143,7 +3096,7 @@
       </c>
       <c r="Q43" s="21"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3168,40 +3121,40 @@
       </c>
       <c r="Q44" s="21"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B45" s="4">
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4">
-        <v>9.9000000000000005E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="0"/>
-        <v>0.495</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N45" s="21"/>
       <c r="O45" s="21">
@@ -3210,32 +3163,32 @@
       </c>
       <c r="P45" s="23">
         <f t="shared" si="2"/>
-        <v>12.375</v>
+        <v>11.5</v>
       </c>
       <c r="Q45" s="21"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="4"/>
       <c r="B46" s="4">
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H46" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3247,7 +3200,7 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N46" s="21"/>
       <c r="O46" s="21">
@@ -3260,7 +3213,7 @@
       </c>
       <c r="Q46" s="21"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3285,28 +3238,28 @@
       </c>
       <c r="Q47" s="21"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3318,7 +3271,7 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N48" s="21"/>
       <c r="O48" s="21">
@@ -3331,28 +3284,28 @@
       </c>
       <c r="Q48" s="21"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
         <v>2</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -3364,7 +3317,7 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N49" s="21"/>
       <c r="O49" s="21">
@@ -3377,28 +3330,28 @@
       </c>
       <c r="Q49" s="21"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
       <c r="B50" s="4">
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="H50" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -3410,7 +3363,7 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N50" s="21"/>
       <c r="O50" s="21">
@@ -3423,7 +3376,7 @@
       </c>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3448,30 +3401,30 @@
       </c>
       <c r="Q51" s="21"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -3483,7 +3436,7 @@
         <v>0.9</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N52" s="21"/>
       <c r="O52" s="21">
@@ -3496,25 +3449,25 @@
       </c>
       <c r="Q52" s="21"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" s="4"/>
       <c r="B53" s="4">
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>4</v>
@@ -3529,7 +3482,7 @@
         <v>1.04</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N53" s="21"/>
       <c r="O53" s="21">
@@ -3542,30 +3495,30 @@
       </c>
       <c r="Q53" s="21"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" s="4"/>
       <c r="B54" s="4">
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K54" s="4">
         <v>0</v>
@@ -3573,9 +3526,7 @@
       <c r="L54" s="4">
         <v>0</v>
       </c>
-      <c r="M54" s="21" t="s">
-        <v>155</v>
-      </c>
+      <c r="M54" s="21"/>
       <c r="N54" s="21"/>
       <c r="O54" s="21">
         <f t="shared" si="1"/>
@@ -3587,28 +3538,28 @@
       </c>
       <c r="Q54" s="21"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55" s="4"/>
       <c r="B55" s="4">
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3620,7 +3571,7 @@
         <v>1.107</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N55" s="21"/>
       <c r="O55" s="21">
@@ -3633,22 +3584,22 @@
       </c>
       <c r="Q55" s="21"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56" s="4"/>
       <c r="B56" s="4">
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>8</v>
@@ -3666,7 +3617,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="M56" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N56" s="21"/>
       <c r="O56" s="21">
@@ -3679,41 +3630,39 @@
       </c>
       <c r="Q56" s="21"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57" s="4"/>
       <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="4"/>
-        <v>1.65</v>
-      </c>
-      <c r="M57" s="21" t="s">
-        <v>155</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="M57" s="21"/>
       <c r="N57" s="21"/>
       <c r="O57" s="21">
         <f t="shared" si="1"/>
@@ -3721,29 +3670,29 @@
       </c>
       <c r="P57" s="23">
         <f t="shared" si="2"/>
-        <v>41.25</v>
+        <v>35</v>
       </c>
       <c r="Q57" s="21"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="4">
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>0</v>
@@ -3751,15 +3700,13 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M58" s="21" t="s">
-        <v>155</v>
-      </c>
+        <v>1.89</v>
+      </c>
+      <c r="M58" s="21"/>
       <c r="N58" s="21"/>
       <c r="O58" s="21">
         <f t="shared" si="1"/>
@@ -3767,11 +3714,11 @@
       </c>
       <c r="P58" s="23">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>47.25</v>
       </c>
       <c r="Q58" s="21"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3796,7 +3743,7 @@
       </c>
       <c r="Q59" s="21"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3824,15 +3771,15 @@
       </c>
       <c r="Q60" s="21"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3848,9 +3795,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M61" s="21" t="s">
-        <v>155</v>
-      </c>
+      <c r="M61" s="21"/>
       <c r="N61" s="21"/>
       <c r="O61" s="21">
         <f t="shared" si="1"/>
@@ -3862,25 +3807,23 @@
       </c>
       <c r="Q61" s="21"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62" s="4"/>
       <c r="B62" s="4">
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="J62" s="4"/>
       <c r="K62" s="4">
         <v>1.94</v>
       </c>
@@ -3888,9 +3831,7 @@
         <f t="shared" si="4"/>
         <v>1.94</v>
       </c>
-      <c r="M62" s="21" t="s">
-        <v>155</v>
-      </c>
+      <c r="M62" s="21"/>
       <c r="N62" s="21"/>
       <c r="O62" s="21">
         <f t="shared" si="1"/>
@@ -3902,29 +3843,29 @@
       </c>
       <c r="Q62" s="21"/>
     </row>
-    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="4"/>
       <c r="B63" s="4">
         <v>5</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="24" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="25">
-        <v>9.9000000000000005E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="L63" s="25">
         <f t="shared" si="4"/>
-        <v>0.495</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="M63" s="21"/>
       <c r="N63" s="21"/>
@@ -3934,28 +3875,29 @@
       </c>
       <c r="P63" s="23">
         <f t="shared" si="2"/>
-        <v>12.375</v>
+        <v>11.5</v>
       </c>
       <c r="Q63" s="21"/>
     </row>
-    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K64" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L64" s="2">
         <f>SUM(L2:L63)</f>
-        <v>23.155999999999995</v>
+        <v>20.092000000000002</v>
       </c>
       <c r="M64" s="21"/>
       <c r="N64" s="21"/>
       <c r="O64" s="21"/>
       <c r="P64" s="23">
         <f>SUM(P2:P63)</f>
-        <v>578.90000000000009</v>
+        <v>502.3</v>
       </c>
       <c r="Q64" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
@@ -3966,25 +3908,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13303EED-ECD8-41ED-813D-0D0F58B0E30B}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1328125" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="5" max="5" width="49.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -3993,10 +3935,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4004,92 +3946,92 @@
         <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="9">
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="9">
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="9">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4097,377 +4039,377 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="9">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="9">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="9">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="9">
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="9">
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="9">
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="9">
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="9">
         <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B22" s="4">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B25" s="4">
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B27" s="5">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="4">
         <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -4475,349 +4417,349 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5">
         <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="4"/>
       <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="4"/>
       <c r="B43" s="4">
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B45" s="4">
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="4"/>
       <c r="B46" s="4">
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
         <v>2</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
       <c r="B50" s="4">
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="4"/>
       <c r="B53" s="4">
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="4"/>
       <c r="B54" s="4">
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="4"/>
       <c r="B55" s="4">
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="4"/>
       <c r="B56" s="4">
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="4"/>
       <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="4">
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="4"/>
       <c r="B62" s="4">
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="4"/>
       <c r="B63" s="4">
         <v>5</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
